--- a/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
+++ b/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF779BA-56BC-433D-805D-DF0CEA02D440}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="123" sheetId="2" r:id="rId2"/>
+    <sheet name="Files" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +21,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Uniques: </t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>00:00:00.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicates: </t>
+  </si>
+  <si>
+    <t>tgg.txt</t>
+  </si>
+  <si>
+    <t>rrt.txt</t>
+  </si>
+  <si>
+    <t>jkkk.txt</t>
+  </si>
+  <si>
+    <t>yhhh.txt</t>
+  </si>
+  <si>
+    <t>00:00:00.252</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,11 +91,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +385,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
+++ b/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
@@ -36,7 +36,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>00:00:00.044</t>
+    <t>00:00:00.042</t>
   </si>
   <si>
     <t xml:space="preserve">Duplicates: </t>
@@ -54,7 +54,7 @@
     <t>yhhh.txt</t>
   </si>
   <si>
-    <t>00:00:00.252</t>
+    <t>00:00:00.244</t>
   </si>
 </sst>
 </file>

--- a/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
+++ b/EpamTasksDirectories/DirectoriesInspectOutput.xlsx
@@ -36,7 +36,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>00:00:00.042</t>
+    <t>00:00:00.048</t>
   </si>
   <si>
     <t xml:space="preserve">Duplicates: </t>
@@ -54,7 +54,7 @@
     <t>yhhh.txt</t>
   </si>
   <si>
-    <t>00:00:00.244</t>
+    <t>00:00:00.255</t>
   </si>
 </sst>
 </file>
